--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,7 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t>raceType</t>
   </si>
@@ -34,12 +46,6 @@
   </si>
   <si>
     <t>_initial_Building</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>主要序列</t>
@@ -82,14 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,48 +546,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,114 +600,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,14 +1052,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1082,22 +1120,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1105,23 +1143,23 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1131,19 +1169,19 @@
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1152,22 +1190,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
         <v>10001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -24,12 +24,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>_defaultBuilding</t>
+  </si>
+  <si>
+    <t>_initial_Building</t>
+  </si>
+  <si>
+    <t>tradeCaravan_num</t>
+  </si>
+  <si>
+    <t>tradeCaravan_gold</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>默认被建造的建筑</t>
+  </si>
+  <si>
+    <t>初始可显示的建筑</t>
+  </si>
+  <si>
+    <t>商队数量</t>
+  </si>
+  <si>
+    <t>商队初始资金</t>
+  </si>
+  <si>
+    <t>10001,11001,12001</t>
+  </si>
+  <si>
+    <t>10001,11001,11011,11021,12001</t>
+  </si>
+  <si>
     <t>raceType</t>
   </si>
   <si>
@@ -42,12 +75,6 @@
     <t>_economy</t>
   </si>
   <si>
-    <t>_defaultBuilding</t>
-  </si>
-  <si>
-    <t>_initial_Building</t>
-  </si>
-  <si>
     <t>主要序列</t>
   </si>
   <si>
@@ -57,12 +84,6 @@
     <t>经济序列</t>
   </si>
   <si>
-    <t>默认被建造的建筑</t>
-  </si>
-  <si>
-    <t>初始可显示的建筑</t>
-  </si>
-  <si>
     <t>Human</t>
   </si>
   <si>
@@ -72,10 +93,19 @@
     <t>12001</t>
   </si>
   <si>
-    <t>10001,11001,12001</t>
-  </si>
-  <si>
-    <t>10001,11001,11011,11021,12001</t>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
   </si>
 </sst>
 </file>
@@ -695,14 +725,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,53 +1082,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+      <c r="B4" s="1">
+        <v>1667200401</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="B5" s="1">
+        <v>1667200411</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+      <c r="B6" s="1">
+        <v>1667200421</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="B7" s="1">
+        <v>1667200431</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1667200441</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1667200451</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1110,131 +1285,198 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1667200301</v>
+      </c>
+      <c r="C4" s="3">
         <v>10001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1667200302</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1667200303</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1667200304</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1667200305</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1667200306</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,7 +1491,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -30,12 +30,6 @@
     <t>_initial_Building</t>
   </si>
   <si>
-    <t>tradeCaravan_num</t>
-  </si>
-  <si>
-    <t>tradeCaravan_gold</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,12 +43,6 @@
   </si>
   <si>
     <t>初始可显示的建筑</t>
-  </si>
-  <si>
-    <t>商队数量</t>
-  </si>
-  <si>
-    <t>商队初始资金</t>
   </si>
   <si>
     <t>10001,11001,12001</t>
@@ -1082,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
@@ -1099,7 +1087,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,51 +1100,33 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1164,19 +1134,13 @@
         <v>1667200401</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1184,19 +1148,13 @@
         <v>1667200411</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1204,19 +1162,13 @@
         <v>1667200421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1224,19 +1176,13 @@
         <v>1667200431</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1244,19 +1190,13 @@
         <v>1667200441</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1264,16 +1204,10 @@
         <v>1667200451</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1303,19 +1237,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1324,19 +1258,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1346,16 +1280,16 @@
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1364,7 +1298,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>1667200301</v>
@@ -1373,10 +1307,10 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1385,7 +1319,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1667200302</v>
@@ -1394,10 +1328,10 @@
         <v>10001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1407,7 +1341,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1667200303</v>
@@ -1416,10 +1350,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1429,7 +1363,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>1667200304</v>
@@ -1438,15 +1372,15 @@
         <v>10001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>1667200305</v>
@@ -1455,15 +1389,15 @@
         <v>10001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>1667200306</v>
@@ -1472,10 +1406,10 @@
         <v>10001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,14 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+  <si>
+    <t>factionID</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>raceID</t>
+  </si>
+  <si>
     <t>_defaultBuilding</t>
   </si>
   <si>
@@ -45,13 +48,28 @@
     <t>初始可显示的建筑</t>
   </si>
   <si>
+    <t>Human</t>
+  </si>
+  <si>
     <t>10001,11001,12001</t>
   </si>
   <si>
     <t>10001,11001,11011,11021,12001</t>
   </si>
   <si>
-    <t>raceType</t>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
   </si>
   <si>
     <t>_mainBase</t>
@@ -72,28 +90,10 @@
     <t>经济序列</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>11001</t>
   </si>
   <si>
     <t>12001</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Elf</t>
-  </si>
-  <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>Dwarf</t>
   </si>
 </sst>
 </file>
@@ -1070,24 +1070,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,33 +1100,40 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1134,13 +1141,16 @@
         <v>1667200401</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1148,13 +1158,16 @@
         <v>1667200411</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1162,52 +1175,64 @@
         <v>1667200421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>1667200431</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>1667200441</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1667200451</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1247,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A1" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,19 +1262,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1258,19 +1283,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1280,16 +1305,16 @@
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1298,7 +1323,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>1667200301</v>
@@ -1307,10 +1332,10 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1319,7 +1344,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>1667200302</v>
@@ -1328,10 +1353,10 @@
         <v>10001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1341,7 +1366,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1667200303</v>
@@ -1350,10 +1375,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1363,7 +1388,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>1667200304</v>
@@ -1372,15 +1397,15 @@
         <v>10001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1667200305</v>
@@ -1389,15 +1414,15 @@
         <v>10001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>1667200306</v>
@@ -1406,10 +1431,10 @@
         <v>10001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -60,7 +60,7 @@
     <t>Orc</t>
   </si>
   <si>
-    <t>Elf</t>
+    <t>HighElf</t>
   </si>
   <si>
     <t>Barbarian</t>
@@ -69,31 +69,31 @@
     <t>Undead</t>
   </si>
   <si>
+    <t>_mainBase</t>
+  </si>
+  <si>
+    <t>_military</t>
+  </si>
+  <si>
+    <t>_economy</t>
+  </si>
+  <si>
+    <t>主要序列</t>
+  </si>
+  <si>
+    <t>军事序列</t>
+  </si>
+  <si>
+    <t>经济序列</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>12001</t>
+  </si>
+  <si>
     <t>Dwarf</t>
-  </si>
-  <si>
-    <t>_mainBase</t>
-  </si>
-  <si>
-    <t>_military</t>
-  </si>
-  <si>
-    <t>_economy</t>
-  </si>
-  <si>
-    <t>主要序列</t>
-  </si>
-  <si>
-    <t>军事序列</t>
-  </si>
-  <si>
-    <t>经济序列</t>
-  </si>
-  <si>
-    <t>11001</t>
-  </si>
-  <si>
-    <t>12001</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>1667200401</v>
+        <v>1667200411</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1667200411</v>
+        <v>1667200412</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1667200421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1667200431</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>1667200441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1667200451</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1246,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1308,13 +1308,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1332,10 +1332,10 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1353,10 +1353,10 @@
         <v>10001</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1375,10 +1375,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1397,10 +1397,10 @@
         <v>10001</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1414,15 +1414,15 @@
         <v>10001</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>1667200306</v>
@@ -1431,10 +1431,10 @@
         <v>10001</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>factionID</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>派系ID</t>
   </si>
   <si>
     <t>名称</t>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1121,16 +1124,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1141,98 +1147,98 @@
         <v>1667200411</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>1667200412</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1667200421</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>1667200431</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
         <v>1667200441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1667200451</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1268,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1305,16 +1311,16 @@
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1667200301</v>
@@ -1332,10 +1338,10 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1344,7 +1350,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1667200302</v>
@@ -1353,10 +1359,10 @@
         <v>10001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>1667200303</v>
@@ -1375,10 +1381,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1667200304</v>
@@ -1397,15 +1403,15 @@
         <v>10001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>1667200305</v>
@@ -1414,15 +1420,15 @@
         <v>10001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>1667200306</v>
@@ -1431,10 +1437,10 @@
         <v>10001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/Faction.xlsx
+++ b/Product/StaticData/Faction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>factionID</t>
   </si>
@@ -33,6 +33,9 @@
     <t>_initial_Building</t>
   </si>
   <si>
+    <t>_init_troop_unit</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>初始可显示的建筑</t>
   </si>
   <si>
+    <t>初始部队单位</t>
+  </si>
+  <si>
     <t>Human</t>
   </si>
   <si>
@@ -60,16 +66,31 @@
     <t>10001,11001,11011,11021,12001</t>
   </si>
   <si>
+    <t>{1101:5}</t>
+  </si>
+  <si>
     <t>Orc</t>
   </si>
   <si>
+    <t>{2101:5}</t>
+  </si>
+  <si>
     <t>HighElf</t>
   </si>
   <si>
+    <t>{3101:5}</t>
+  </si>
+  <si>
     <t>Barbarian</t>
   </si>
   <si>
+    <t>{4101:5}</t>
+  </si>
+  <si>
     <t>Undead</t>
+  </si>
+  <si>
+    <t>{5101:5}</t>
   </si>
   <si>
     <t>_mainBase</t>
@@ -712,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="17.875" style="1" customWidth="1"/>
@@ -1090,7 +1114,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,40 +1130,49 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -1147,16 +1180,19 @@
         <v>1667200411</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -1164,16 +1200,19 @@
         <v>1667200412</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -1181,16 +1220,19 @@
         <v>1667200421</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -1198,16 +1240,19 @@
         <v>1667200431</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>41</v>
       </c>
@@ -1215,16 +1260,19 @@
         <v>1667200441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>51</v>
       </c>
@@ -1232,13 +1280,16 @@
         <v>1667200451</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1289,19 +1340,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1311,16 +1362,16 @@
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1329,7 +1380,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1667200301</v>
@@ -1338,10 +1389,10 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1350,7 +1401,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1667200302</v>
@@ -1359,10 +1410,10 @@
         <v>10001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1372,7 +1423,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>1667200303</v>
@@ -1381,10 +1432,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1394,7 +1445,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1667200304</v>
@@ -1403,15 +1454,15 @@
         <v>10001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1667200305</v>
@@ -1420,15 +1471,15 @@
         <v>10001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>1667200306</v>
@@ -1437,10 +1488,10 @@
         <v>10001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
